--- a/pro.xlsx
+++ b/pro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>css position dagi top left right bootom strelkalar bilam ko'rsatish</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Html darslikga  documentatsiyani oxiriga quyish </t>
+  </si>
+  <si>
+    <t>CSS da z-indeks ishlatilgan elementga va uni qoplab olgan avlod elementiga  :hover : active :focus ishlamaykan</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B30"/>
+  <dimension ref="A3:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,6 +672,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>css position dagi top left right bootom strelkalar bilam ko'rsatish</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>CSS da z-indeks ishlatilgan elementga va uni qoplab olgan avlod elementiga  :hover : active :focus ishlamaykan</t>
+  </si>
+  <si>
+    <t>dars dasturga dars degan bo'limiga yordam tugmasini bosganda kodlarni ko'rsatadi va shu kodlarni bosganda dars degan bo'limga kirib ketsim va usha bosilgan kodni ochsin (o'quvchi o'qib o'rganishi uchun);</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B31"/>
+  <dimension ref="A3:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -680,6 +683,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pro.xlsx
+++ b/pro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>css position dagi top left right bootom strelkalar bilam ko'rsatish</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>dars dasturga dars degan bo'limiga yordam tugmasini bosganda kodlarni ko'rsatadi va shu kodlarni bosganda dars degan bo'limga kirib ketsim va usha bosilgan kodni ochsin (o'quvchi o'qib o'rganishi uchun);</t>
+  </si>
+  <si>
+    <t>required va  onblur va onfocus degan atributlarni urganish va dars dasturga kiritish</t>
   </si>
 </sst>
 </file>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B32"/>
+  <dimension ref="A3:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,6 +694,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
